--- a/book Sample.xlsx
+++ b/book Sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Aider\CA_LMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1BDBB-6EA6-4F3C-9F34-029588EA9E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="278">
   <si>
     <t>PublicationYear</t>
   </si>
@@ -836,15 +842,6 @@
   </si>
   <si>
     <t>authors</t>
-  </si>
-  <si>
-    <t>Sinhala</t>
-  </si>
-  <si>
-    <t>Documentry</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>book_category</t>
@@ -862,7 +859,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -962,6 +959,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1009,7 +1009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,9 +1042,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,6 +1094,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1252,11 +1286,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1305,7 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="10" style="6" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
@@ -1292,16 +1326,16 @@
         <v>273</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
@@ -1344,17 +1378,17 @@
       <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" t="s">
-        <v>276</v>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
@@ -1376,6 +1410,18 @@
       <c r="D3" t="s">
         <v>108</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
       <c r="I3" s="7">
         <v>0</v>
       </c>
@@ -1393,6 +1439,18 @@
       <c r="D4" t="s">
         <v>109</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
@@ -1413,6 +1471,18 @@
       <c r="D5" t="s">
         <v>110</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5" s="7">
         <v>0</v>
       </c>
@@ -1433,6 +1503,18 @@
       <c r="D6" t="s">
         <v>111</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6" s="7">
         <v>0</v>
       </c>
@@ -1453,6 +1535,18 @@
       <c r="D7" t="s">
         <v>112</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7" s="7">
         <v>0</v>
       </c>
@@ -1470,6 +1564,18 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8" s="7">
         <v>0</v>
       </c>
@@ -1487,6 +1593,18 @@
       <c r="D9" t="s">
         <v>113</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9" s="7">
         <v>0</v>
       </c>
@@ -1507,6 +1625,18 @@
       <c r="D10" t="s">
         <v>114</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
@@ -1527,6 +1657,18 @@
       <c r="D11" t="s">
         <v>115</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
@@ -1547,6 +1689,18 @@
       <c r="D12" t="s">
         <v>115</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12" s="7">
         <v>0</v>
       </c>
@@ -1567,6 +1721,18 @@
       <c r="D13" t="s">
         <v>115</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
@@ -1584,6 +1750,18 @@
       <c r="D14" t="s">
         <v>116</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
@@ -1604,6 +1782,18 @@
       <c r="D15" t="s">
         <v>117</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15" s="7">
         <v>0</v>
       </c>
@@ -1624,6 +1814,18 @@
       <c r="D16" t="s">
         <v>118</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16" s="7">
         <v>0</v>
       </c>
@@ -1644,6 +1846,18 @@
       <c r="D17" t="s">
         <v>119</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
@@ -1661,6 +1875,18 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
       <c r="I18" s="7">
         <v>0</v>
       </c>
@@ -1678,6 +1904,18 @@
       <c r="D19" t="s">
         <v>120</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
       <c r="I19" s="7">
         <v>0</v>
       </c>
@@ -1695,6 +1933,18 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
@@ -1712,6 +1962,18 @@
       <c r="C21" t="s">
         <v>27</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
       <c r="I21" s="7">
         <v>0</v>
       </c>
@@ -1726,6 +1988,18 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="I22" s="7">
         <v>0</v>
       </c>
@@ -1740,6 +2014,18 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="I23" s="7">
         <v>0</v>
       </c>
@@ -1754,6 +2040,18 @@
       <c r="C24" t="s">
         <v>30</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24" s="7">
         <v>0</v>
       </c>
@@ -1771,6 +2069,18 @@
       <c r="D25" t="s">
         <v>121</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
       <c r="I25" s="7">
         <v>0</v>
       </c>
@@ -1791,6 +2101,18 @@
       <c r="D26" t="s">
         <v>121</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
       <c r="I26" s="7">
         <v>0</v>
       </c>
@@ -1811,6 +2133,18 @@
       <c r="D27" t="s">
         <v>122</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
       <c r="I27" s="7">
         <v>0</v>
       </c>
@@ -1831,6 +2165,18 @@
       <c r="D28" t="s">
         <v>123</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
       <c r="I28" s="7">
         <v>0</v>
       </c>
@@ -1851,6 +2197,18 @@
       <c r="D29" t="s">
         <v>118</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
       <c r="I29" s="7">
         <v>0</v>
       </c>
@@ -1871,6 +2229,18 @@
       <c r="D30" t="s">
         <v>124</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
       <c r="I30" s="7">
         <v>0</v>
       </c>
@@ -1891,6 +2261,18 @@
       <c r="D31" t="s">
         <v>125</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
       <c r="I31" s="7">
         <v>0</v>
       </c>
@@ -1911,6 +2293,18 @@
       <c r="D32" t="s">
         <v>126</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
       <c r="I32" s="7">
         <v>0</v>
       </c>
@@ -1931,6 +2325,18 @@
       <c r="D33" t="s">
         <v>126</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
       <c r="I33" s="7">
         <v>0</v>
       </c>
@@ -1951,6 +2357,18 @@
       <c r="D34" t="s">
         <v>127</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
       <c r="I34" s="7">
         <v>0</v>
       </c>
@@ -1971,6 +2389,18 @@
       <c r="D35" t="s">
         <v>128</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
       <c r="I35" s="7">
         <v>0</v>
       </c>
@@ -1991,6 +2421,18 @@
       <c r="D36" t="s">
         <v>129</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
       <c r="I36" s="7">
         <v>0</v>
       </c>
@@ -2011,6 +2453,18 @@
       <c r="D37" t="s">
         <v>126</v>
       </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
       <c r="I37" s="7">
         <v>0</v>
       </c>
@@ -2028,6 +2482,18 @@
       <c r="C38" t="s">
         <v>44</v>
       </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
       <c r="I38" s="7">
         <v>0</v>
       </c>
@@ -2045,6 +2511,18 @@
       <c r="D39" t="s">
         <v>130</v>
       </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
       <c r="I39" s="7">
         <v>0</v>
       </c>
@@ -2062,6 +2540,18 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
       <c r="I40" s="7">
         <v>0</v>
       </c>
@@ -2079,6 +2569,18 @@
       <c r="D41" t="s">
         <v>131</v>
       </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
       <c r="I41" s="7">
         <v>0</v>
       </c>
@@ -2096,6 +2598,18 @@
       <c r="C42" t="s">
         <v>48</v>
       </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
       <c r="I42" s="7">
         <v>0</v>
       </c>
@@ -2113,6 +2627,18 @@
       <c r="D43" t="s">
         <v>132</v>
       </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
       <c r="I43" s="7">
         <v>0</v>
       </c>
@@ -2133,6 +2659,18 @@
       <c r="D44" t="s">
         <v>133</v>
       </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
       <c r="I44" s="7">
         <v>0</v>
       </c>
@@ -2150,6 +2688,18 @@
       <c r="C45" t="s">
         <v>51</v>
       </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
       <c r="I45" s="7">
         <v>0</v>
       </c>
@@ -2167,6 +2717,18 @@
       <c r="D46" t="s">
         <v>134</v>
       </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
       <c r="I46" s="7">
         <v>0</v>
       </c>
@@ -2184,6 +2746,18 @@
       <c r="C47" t="s">
         <v>53</v>
       </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
       <c r="I47" s="7">
         <v>0</v>
       </c>
@@ -2201,6 +2775,18 @@
       <c r="D48" t="s">
         <v>135</v>
       </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
       <c r="I48" s="7">
         <v>0</v>
       </c>
@@ -2221,6 +2807,18 @@
       <c r="D49" t="s">
         <v>136</v>
       </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
       <c r="I49" s="7">
         <v>0</v>
       </c>
@@ -2241,6 +2839,18 @@
       <c r="D50" t="s">
         <v>137</v>
       </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
       <c r="I50" s="7">
         <v>0</v>
       </c>
@@ -2261,6 +2871,18 @@
       <c r="D51" t="s">
         <v>138</v>
       </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
       <c r="I51" s="7">
         <v>0</v>
       </c>
@@ -2281,6 +2903,18 @@
       <c r="D52" t="s">
         <v>139</v>
       </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
       <c r="I52" s="7">
         <v>0</v>
       </c>
@@ -2301,6 +2935,18 @@
       <c r="D53" t="s">
         <v>140</v>
       </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
       <c r="I53" s="7">
         <v>0</v>
       </c>
@@ -2321,6 +2967,18 @@
       <c r="D54" t="s">
         <v>141</v>
       </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
       <c r="I54" s="7">
         <v>0</v>
       </c>
@@ -2341,6 +2999,18 @@
       <c r="D55" t="s">
         <v>142</v>
       </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
       <c r="I55" s="7">
         <v>0</v>
       </c>
@@ -2361,6 +3031,18 @@
       <c r="D56" t="s">
         <v>143</v>
       </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
       <c r="I56" s="7">
         <v>0</v>
       </c>
@@ -2381,6 +3063,18 @@
       <c r="D57" t="s">
         <v>144</v>
       </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
       <c r="I57" s="7">
         <v>0</v>
       </c>
@@ -2398,6 +3092,18 @@
       <c r="C58" t="s">
         <v>64</v>
       </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
       <c r="I58" s="7">
         <v>0</v>
       </c>
@@ -2415,6 +3121,18 @@
       <c r="D59" t="s">
         <v>145</v>
       </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
       <c r="I59" s="7">
         <v>0</v>
       </c>
@@ -2435,6 +3153,18 @@
       <c r="D60" t="s">
         <v>146</v>
       </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
       <c r="I60" s="7">
         <v>0</v>
       </c>
@@ -2455,6 +3185,18 @@
       <c r="D61" t="s">
         <v>147</v>
       </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
       <c r="I61" s="7">
         <v>0</v>
       </c>
@@ -2475,6 +3217,18 @@
       <c r="D62" t="s">
         <v>148</v>
       </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
       <c r="I62" s="7">
         <v>0</v>
       </c>
@@ -2495,6 +3249,18 @@
       <c r="D63" t="s">
         <v>149</v>
       </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
       <c r="I63" s="7">
         <v>0</v>
       </c>
@@ -2515,6 +3281,18 @@
       <c r="D64" t="s">
         <v>150</v>
       </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
       <c r="I64" s="7">
         <v>0</v>
       </c>
@@ -2535,6 +3313,18 @@
       <c r="D65" t="s">
         <v>151</v>
       </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
       <c r="I65" s="7">
         <v>0</v>
       </c>
@@ -2555,6 +3345,18 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
       <c r="I66" s="7">
         <v>0</v>
       </c>
@@ -2575,6 +3377,18 @@
       <c r="D67" t="s">
         <v>152</v>
       </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
       <c r="I67" s="7">
         <v>0</v>
       </c>
@@ -2595,6 +3409,18 @@
       <c r="D68" t="s">
         <v>153</v>
       </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
       <c r="I68" s="7">
         <v>0</v>
       </c>
@@ -2615,6 +3441,18 @@
       <c r="D69" t="s">
         <v>154</v>
       </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
       <c r="I69" s="7">
         <v>0</v>
       </c>
@@ -2635,6 +3473,18 @@
       <c r="D70" t="s">
         <v>155</v>
       </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
       <c r="I70" s="7">
         <v>0</v>
       </c>
@@ -2655,6 +3505,18 @@
       <c r="D71" t="s">
         <v>156</v>
       </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
       <c r="I71" s="7">
         <v>0</v>
       </c>
@@ -2675,6 +3537,18 @@
       <c r="D72" t="s">
         <v>157</v>
       </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
       <c r="I72" s="7">
         <v>0</v>
       </c>
@@ -2695,6 +3569,18 @@
       <c r="D73" t="s">
         <v>158</v>
       </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
       <c r="I73" s="7">
         <v>0</v>
       </c>
@@ -2712,6 +3598,18 @@
       <c r="D74" t="s">
         <v>115</v>
       </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
       <c r="I74" s="7">
         <v>0</v>
       </c>
@@ -2732,6 +3630,18 @@
       <c r="D75" t="s">
         <v>8</v>
       </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
       <c r="I75" s="7">
         <v>0</v>
       </c>
@@ -2752,6 +3662,18 @@
       <c r="D76" t="s">
         <v>157</v>
       </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
       <c r="I76" s="7">
         <v>0</v>
       </c>
@@ -2769,6 +3691,18 @@
       <c r="C77" t="s">
         <v>83</v>
       </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
       <c r="I77" s="7">
         <v>0</v>
       </c>
@@ -2783,6 +3717,18 @@
       <c r="C78" t="s">
         <v>84</v>
       </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
       <c r="I78" s="7">
         <v>0</v>
       </c>
@@ -2797,6 +3743,18 @@
       <c r="C79" t="s">
         <v>85</v>
       </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
       <c r="I79" s="7">
         <v>0</v>
       </c>
@@ -2811,6 +3769,18 @@
       <c r="C80" t="s">
         <v>86</v>
       </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
       <c r="I80" s="7">
         <v>0</v>
       </c>
@@ -2828,6 +3798,18 @@
       <c r="C81" t="s">
         <v>87</v>
       </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
       <c r="I81" s="7">
         <v>0</v>
       </c>
@@ -2842,6 +3824,18 @@
       <c r="C82" t="s">
         <v>88</v>
       </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
       <c r="I82" s="7">
         <v>0</v>
       </c>
@@ -2859,6 +3853,18 @@
       <c r="D83" t="s">
         <v>159</v>
       </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
       <c r="I83" s="7">
         <v>0</v>
       </c>
@@ -2876,6 +3882,18 @@
       <c r="C84" t="s">
         <v>90</v>
       </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
       <c r="I84" s="7">
         <v>0</v>
       </c>
@@ -2893,6 +3911,18 @@
       <c r="D85" t="s">
         <v>160</v>
       </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
       <c r="I85" s="7">
         <v>0</v>
       </c>
@@ -2913,6 +3943,18 @@
       <c r="D86" t="s">
         <v>161</v>
       </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
       <c r="I86" s="7">
         <v>0</v>
       </c>
@@ -2933,6 +3975,18 @@
       <c r="D87" t="s">
         <v>162</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
       <c r="I87" s="7">
         <v>0</v>
       </c>
@@ -2953,6 +4007,18 @@
       <c r="D88" t="s">
         <v>163</v>
       </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
       <c r="I88" s="7">
         <v>0</v>
       </c>
@@ -2973,6 +4039,18 @@
       <c r="D89" t="s">
         <v>164</v>
       </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
       <c r="I89" s="7">
         <v>0</v>
       </c>
@@ -2993,6 +4071,18 @@
       <c r="D90" t="s">
         <v>164</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
       <c r="I90" s="7">
         <v>0</v>
       </c>
@@ -3013,6 +4103,18 @@
       <c r="D91" t="s">
         <v>8</v>
       </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
       <c r="I91" s="7">
         <v>0</v>
       </c>
@@ -3027,6 +4129,18 @@
       <c r="C92" t="s">
         <v>98</v>
       </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
       <c r="I92" s="7">
         <v>0</v>
       </c>
@@ -3044,6 +4158,18 @@
       <c r="D93" t="s">
         <v>165</v>
       </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
       <c r="I93" s="7">
         <v>0</v>
       </c>
@@ -3064,6 +4190,18 @@
       <c r="D94" t="s">
         <v>157</v>
       </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
       <c r="I94" s="7">
         <v>0</v>
       </c>
@@ -3084,6 +4222,18 @@
       <c r="D95" t="s">
         <v>166</v>
       </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
       <c r="I95" s="7">
         <v>0</v>
       </c>
@@ -3101,6 +4251,18 @@
       <c r="C96" t="s">
         <v>102</v>
       </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
       <c r="I96" s="7">
         <v>0</v>
       </c>
@@ -3115,6 +4277,18 @@
       <c r="C97" t="s">
         <v>103</v>
       </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
       <c r="I97" s="7">
         <v>0</v>
       </c>
@@ -3129,6 +4303,18 @@
       <c r="C98" t="s">
         <v>104</v>
       </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
       <c r="I98" s="7">
         <v>0</v>
       </c>
@@ -3143,6 +4329,18 @@
       <c r="C99" t="s">
         <v>105</v>
       </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
       <c r="I99" s="7">
         <v>0</v>
       </c>
@@ -3159,6 +4357,18 @@
       </c>
       <c r="D100" t="s">
         <v>167</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
       </c>
       <c r="I100" s="7">
         <v>0</v>
